--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T15:48:53+01:00</t>
+    <t>2025-03-26T13:23:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T13:23:18+01:00</t>
+    <t>2025-03-26T13:37:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T13:37:22+01:00</t>
+    <t>2025-04-15T09:45:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Der ausgefüllte Fragebogen zur Einwilligung.</t>
+    <t>The completed questionnaire.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T09:45:28+02:00</t>
+    <t>2025-04-16T11:15:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T11:15:21+02:00</t>
+    <t>2025-04-16T13:27:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T13:27:07+02:00</t>
+    <t>2025-05-10T09:33:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1383,17 +1383,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="45.1640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.9609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1402,25 +1402,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.2890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.2265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.22265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-10T09:33:17+02:00</t>
+    <t>2025-05-12T15:27:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T15:27:13+02:00</t>
+    <t>2025-05-12T15:33:04+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T15:33:04+02:00</t>
+    <t>2025-05-14T14:21:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T14:21:32+02:00</t>
+    <t>2025-06-12T14:08:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T14:08:24+02:00</t>
+    <t>2025-06-13T14:46:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T14:46:42+02:00</t>
+    <t>2025-06-16T14:33:49+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="327">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://utn/consentresource.com/StructureDefinition/profile-consent-management-questionnaireresponse</t>
+    <t>https://www.utn-num.de/fhir/StructureDefinition/profile-consent-management-questionnaireresponse</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T14:33:49+02:00</t>
+    <t>2025-06-18T11:50:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>BIH-CEI</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>BIH-CEI (http://utn/consentresource.com)</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability (https://www.bihealth.org/de/forschung/arbeitsgruppen/interoperabilitaet/home)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -320,17 +320,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>QuestionnaireResponse.implicitRules</t>
   </si>
   <si>
@@ -350,9 +343,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>QuestionnaireResponse.language</t>
   </si>
   <si>
@@ -430,6 +420,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>QuestionnaireResponse.extension</t>
   </si>
   <si>
@@ -450,6 +443,221 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique id for this set of answers</t>
+  </si>
+  <si>
+    <t>A business identifier assigned to a particular completed (or partially completed) questionnaire.</t>
+  </si>
+  <si>
+    <t>Used for tracking, registration and other business purposes.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>The order, proposal or plan that is fulfilled in whole or in part by this QuestionnaireResponse.  For example, a ServiceRequest seeking an intake assessment or a decision support recommendation to assess for post-partum depression.</t>
+  </si>
+  <si>
+    <t>Supports traceability of responsibility for the action and allows linkage of an action to the recommendations acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation|Procedure)
+</t>
+  </si>
+  <si>
+    <t>Part of this action</t>
+  </si>
+  <si>
+    <t>A procedure or observation that this questionnaire was performed as part of the execution of.  For example, the surgery a checklist was executed as part of.</t>
+  </si>
+  <si>
+    <t>Composition of questionnaire responses will be handled by the parent questionnaire having answers that reference the child questionnaire.  For relationships to referrals, and other types of requests, use basedOn.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Questionnaire)
+</t>
+  </si>
+  <si>
+    <t>Form being answered</t>
+  </si>
+  <si>
+    <t>The Questionnaire that defines and organizes the questions for which answers are being provided.</t>
+  </si>
+  <si>
+    <t>If a QuestionnaireResponse references a Questionnaire, then the QuestionnaireResponse structure must be consistent with the Questionnaire (i.e. questions must be organized into the same groups, nested questions must still be nested, etc.).</t>
+  </si>
+  <si>
+    <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
+  </si>
+  <si>
+    <t>Event.instantiates</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[typeCode=INST]/target[classCode=OBS, moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.status</t>
+  </si>
+  <si>
+    <t>in-progress | completed | amended | entered-in-error | stopped</t>
+  </si>
+  <si>
+    <t>The position of the questionnaire response within its overall lifecycle.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>The information on Questionnaire resources  may possibly be gathered during multiple sessions and altered after considered being finished.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Lifecycle status of the questionnaire response.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode (also whether there's a revisionControlAct - and possibly mood to distinguish "in-progress" from "published)</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.subject</t>
+  </si>
+  <si>
+    <t>Patient
+Focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.de/ConsentManagement/StructureDefinition/Patient)
+</t>
+  </si>
+  <si>
+    <t>Der Patient, für den die Einwilligung gilt</t>
+  </si>
+  <si>
+    <t>The subject of the questionnaire response.  This could be a patient, organization, practitioner, device, etc.  This is who/what the answers apply to, but is not necessarily the source of information.</t>
+  </si>
+  <si>
+    <t>If the Questionnaire declared a subjectType, the resource pointed to by this element must be an instance of one of the listed types.</t>
+  </si>
+  <si>
+    <t>Allows linking the answers to the individual the answers describe.  May also affect access control.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.subject.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -460,245 +668,26 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
 </t>
-  </si>
-  <si>
-    <t>Unique id for this set of answers</t>
-  </si>
-  <si>
-    <t>A business identifier assigned to a particular completed (or partially completed) questionnaire.</t>
-  </si>
-  <si>
-    <t>Used for tracking, registration and other business purposes.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Request fulfilled by this QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>The order, proposal or plan that is fulfilled in whole or in part by this QuestionnaireResponse.  For example, a ServiceRequest seeking an intake assessment or a decision support recommendation to assess for post-partum depression.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>Supports traceability of responsibility for the action and allows linkage of an action to the recommendations acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation|Procedure)
-</t>
-  </si>
-  <si>
-    <t>Part of this action</t>
-  </si>
-  <si>
-    <t>A procedure or observation that this questionnaire was performed as part of the execution of.  For example, the surgery a checklist was executed as part of.</t>
-  </si>
-  <si>
-    <t>Composition of questionnaire responses will be handled by the parent questionnaire having answers that reference the child questionnaire.  For relationships to referrals, and other types of requests, use basedOn.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.questionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(Questionnaire)
-</t>
-  </si>
-  <si>
-    <t>Form being answered</t>
-  </si>
-  <si>
-    <t>The Questionnaire that defines and organizes the questions for which answers are being provided.</t>
-  </si>
-  <si>
-    <t>If a QuestionnaireResponse references a Questionnaire, then the QuestionnaireResponse structure must be consistent with the Questionnaire (i.e. questions must be organized into the same groups, nested questions must still be nested, etc.).</t>
-  </si>
-  <si>
-    <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
-  </si>
-  <si>
-    <t>Event.instantiates</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[typeCode=INST]/target[classCode=OBS, moodCode=DEFN]</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.status</t>
-  </si>
-  <si>
-    <t>in-progress | completed | amended | entered-in-error | stopped</t>
-  </si>
-  <si>
-    <t>The position of the questionnaire response within its overall lifecycle.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>The information on Questionnaire resources  may possibly be gathered during multiple sessions and altered after considered being finished.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Lifecycle status of the questionnaire response.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode (also whether there's a revisionControlAct - and possibly mood to distinguish "in-progress" from "published)</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.subject</t>
-  </si>
-  <si>
-    <t>Patient
-Focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.de/ConsentManagement/StructureDefinition/Patient)
-</t>
-  </si>
-  <si>
-    <t>Der Patient, für den die Einwilligung gilt</t>
-  </si>
-  <si>
-    <t>The subject of the questionnaire response.  This could be a patient, organization, practitioner, device, etc.  This is who/what the answers apply to, but is not necessarily the source of information.</t>
-  </si>
-  <si>
-    <t>If the Questionnaire declared a subjectType, the resource pointed to by this element must be an instance of one of the listed types.</t>
-  </si>
-  <si>
-    <t>Allows linking the answers to the individual the answers describe.  May also affect access control.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.subject.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.subject.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t>ele-1
-ref-1</t>
   </si>
   <si>
     <t>QuestionnaireResponse.subject.type</t>
@@ -933,9 +922,6 @@
   </si>
   <si>
     <t>The item from the Questionnaire that corresponds to this item in the QuestionnaireResponse resource.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Items can repeat in the answers, so a direct 1..1 correspondence by position might not exist - requiring correspondence by identifier.</t>
@@ -1858,16 +1844,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>20</v>
@@ -1875,10 +1861,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1901,16 +1887,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1960,7 +1946,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1969,16 +1955,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>20</v>
@@ -1986,10 +1972,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2012,16 +1998,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2047,31 +2033,31 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2080,16 +2066,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>20</v>
@@ -2097,14 +2083,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2123,16 +2109,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2182,7 +2168,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2191,16 +2177,16 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -2208,14 +2194,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2234,16 +2220,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2293,7 +2279,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2311,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -2319,14 +2305,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2345,16 +2331,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2392,19 +2378,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2413,16 +2399,16 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -2430,14 +2416,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2456,19 +2442,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2505,19 +2491,19 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2526,16 +2512,16 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -2543,10 +2529,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2569,17 +2555,17 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2628,7 +2614,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2637,31 +2623,31 @@
         <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2680,19 +2666,17 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2741,7 +2725,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2750,16 +2734,16 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
@@ -2767,10 +2751,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2793,16 +2777,16 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2852,7 +2836,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2861,16 +2845,16 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -2878,14 +2862,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2904,19 +2888,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -2965,7 +2949,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2974,16 +2958,16 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -2991,10 +2975,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3017,19 +3001,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3054,13 +3038,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3078,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3087,31 +3071,31 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3130,19 +3114,19 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3191,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3200,27 +3184,27 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3243,13 +3227,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3300,7 +3284,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3318,7 +3302,7 @@
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>20</v>
@@ -3326,14 +3310,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3352,16 +3336,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3399,19 +3383,19 @@
         <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3420,16 +3404,16 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>20</v>
@@ -3437,10 +3421,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3463,16 +3447,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3522,7 +3506,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3531,16 +3515,16 @@
         <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -3548,10 +3532,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3574,16 +3558,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3609,31 +3593,31 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3642,16 +3626,16 @@
         <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -3659,10 +3643,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3685,16 +3669,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3744,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3753,16 +3737,16 @@
         <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
@@ -3770,10 +3754,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3796,16 +3780,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3855,7 +3839,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3864,16 +3848,16 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -3881,10 +3865,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3907,19 +3891,19 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -3968,7 +3952,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3977,31 +3961,31 @@
         <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4020,19 +4004,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4081,7 +4065,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4090,31 +4074,31 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4133,19 +4117,19 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4194,7 +4178,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4203,27 +4187,27 @@
         <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4246,19 +4230,19 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4307,7 +4291,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4316,27 +4300,27 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4359,16 +4343,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4418,7 +4402,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4427,16 +4411,16 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
@@ -4444,10 +4428,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4470,13 +4454,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4527,7 +4511,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4545,7 +4529,7 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -4553,14 +4537,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4579,16 +4563,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4626,19 +4610,19 @@
         <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4647,16 +4631,16 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -4664,14 +4648,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4690,19 +4674,19 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4751,7 +4735,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4760,16 +4744,16 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -4777,10 +4761,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4803,19 +4787,17 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -4864,7 +4846,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>87</v>
@@ -4873,16 +4855,16 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -4890,10 +4872,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4916,19 +4898,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -4977,7 +4959,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4986,16 +4968,16 @@
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -5003,10 +4985,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5029,19 +5011,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5090,7 +5070,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5099,16 +5079,16 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5116,10 +5096,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5142,16 +5122,16 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5201,7 +5181,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5210,16 +5190,16 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5227,10 +5207,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5253,13 +5233,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5310,7 +5290,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5328,7 +5308,7 @@
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
@@ -5336,14 +5316,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5362,16 +5342,16 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5409,19 +5389,19 @@
         <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5430,16 +5410,16 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -5447,14 +5427,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5473,19 +5453,19 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5534,7 +5514,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5543,16 +5523,16 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -5560,10 +5540,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5586,19 +5566,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -5623,13 +5603,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5647,7 +5627,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5656,16 +5636,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -5673,10 +5653,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5702,14 +5682,14 @@
         <v>79</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -5758,7 +5738,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5770,13 +5750,13 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -5784,10 +5764,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5813,14 +5793,14 @@
         <v>79</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -5869,7 +5849,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5881,13 +5861,13 @@
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>

--- a/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
+++ b/output/StructureDefinition-profile-consent-management-questionnaireresponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T11:50:53+02:00</t>
+    <t>2025-06-18T14:35:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
